--- a/docs/StructureDefinition-backport-heartbeat-period.xlsx
+++ b/docs/StructureDefinition-backport-heartbeat-period.xlsx
@@ -206,7 +206,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-heartbeat-period</t>
+    <t>http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/backport-heartbeat-period</t>
   </si>
   <si>
     <t>N/A</t>
